--- a/data/trans_orig/POLIPATOLOGIA_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>50091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38136</v>
+        <v>38744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63238</v>
+        <v>61944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1834781035691233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.139687818977845</v>
+        <v>0.1419144882434569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2316342289757252</v>
+        <v>0.2268925458922307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -765,19 +765,19 @@
         <v>67405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53877</v>
+        <v>54092</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83895</v>
+        <v>82153</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2584183288421896</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2065523158276949</v>
+        <v>0.2073788213065223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.321635921612432</v>
+        <v>0.3149589862549136</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -786,19 +786,19 @@
         <v>117497</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100266</v>
+        <v>100232</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137667</v>
+        <v>137331</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2200938896564643</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1878183758278904</v>
+        <v>0.1877535905155708</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2578774876527712</v>
+        <v>0.257247713305094</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>222919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>209772</v>
+        <v>211066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>234874</v>
+        <v>234266</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8165218964308767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7683657710242749</v>
+        <v>0.7731074541077693</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.860312181022155</v>
+        <v>0.8580855117565431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>181</v>
@@ -836,19 +836,19 @@
         <v>193433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176943</v>
+        <v>178685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>206961</v>
+        <v>206746</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7415816711578105</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6783640783875678</v>
+        <v>0.6850410137450863</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7934476841723048</v>
+        <v>0.7926211786934775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>398</v>
@@ -857,19 +857,19 @@
         <v>416351</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>396181</v>
+        <v>396517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>433582</v>
+        <v>433616</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7799061103435357</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7421225123472288</v>
+        <v>0.742752286694906</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8121816241721095</v>
+        <v>0.8122464094844292</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>89212</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71842</v>
+        <v>72832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109508</v>
+        <v>106651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1809289452147738</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1457019852752542</v>
+        <v>0.1477093203189911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2220919586866276</v>
+        <v>0.2162967450847163</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>200</v>
@@ -982,19 +982,19 @@
         <v>203763</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>183744</v>
+        <v>183393</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>225805</v>
+        <v>225812</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4043330875561732</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3646089842979373</v>
+        <v>0.3639125975384822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4480701902337754</v>
+        <v>0.4480842497826557</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>284</v>
@@ -1003,19 +1003,19 @@
         <v>292975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>265721</v>
+        <v>264575</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>322402</v>
+        <v>320477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.293849284521584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2665137515446069</v>
+        <v>0.2653648764024995</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3233646562370043</v>
+        <v>0.3214332569968987</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>403863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>383567</v>
+        <v>386424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421233</v>
+        <v>420243</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8190710547852261</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7779080413133722</v>
+        <v>0.7837032549152837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8542980147247453</v>
+        <v>0.8522906796810088</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>299</v>
@@ -1053,19 +1053,19 @@
         <v>300186</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>278144</v>
+        <v>278137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>320205</v>
+        <v>320556</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5956669124438267</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5519298097662247</v>
+        <v>0.5519157502173443</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6353910157020627</v>
+        <v>0.6360874024615178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>680</v>
@@ -1074,19 +1074,19 @@
         <v>704049</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>674622</v>
+        <v>676547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>731303</v>
+        <v>732449</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.706150715478416</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6766353437629958</v>
+        <v>0.6785667430031013</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7334862484553931</v>
+        <v>0.7346351235975009</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>52608</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41135</v>
+        <v>41220</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67079</v>
+        <v>67602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1649948708663143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1290114072626683</v>
+        <v>0.1292801085868361</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.210382008316896</v>
+        <v>0.2120214809843182</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -1199,19 +1199,19 @@
         <v>103040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86788</v>
+        <v>87107</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>120017</v>
+        <v>119594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3072029690840987</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2587504760821776</v>
+        <v>0.2597018748460707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3578202561492299</v>
+        <v>0.3565588825490617</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>156</v>
@@ -1220,19 +1220,19 @@
         <v>155648</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134325</v>
+        <v>135912</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177230</v>
+        <v>178049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2378993049328752</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2053092141367321</v>
+        <v>0.2077349255761007</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2708870796088586</v>
+        <v>0.2721395787518119</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>266238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251767</v>
+        <v>251244</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277711</v>
+        <v>277626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8350051291336856</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7896179916831041</v>
+        <v>0.7879785190156818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8709885927373318</v>
+        <v>0.870719891413164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>232</v>
@@ -1270,19 +1270,19 @@
         <v>232372</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>215395</v>
+        <v>215818</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248624</v>
+        <v>248305</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6927970309159013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.64217974385077</v>
+        <v>0.6434411174509383</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7412495239178223</v>
+        <v>0.7402981251539293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -1291,19 +1291,19 @@
         <v>498610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>477028</v>
+        <v>476209</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>519933</v>
+        <v>518346</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7621006950671247</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7291129203911414</v>
+        <v>0.7278604212481879</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7946907858632678</v>
+        <v>0.7922650744238992</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>74595</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59013</v>
+        <v>59619</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90635</v>
+        <v>89108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2079762748418852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1645310157227201</v>
+        <v>0.166222193935534</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2526973526168093</v>
+        <v>0.248438967956483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -1416,19 +1416,19 @@
         <v>113907</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96544</v>
+        <v>96893</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131545</v>
+        <v>131596</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3066497156847864</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2599073992610694</v>
+        <v>0.2608476777805172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3541337477247444</v>
+        <v>0.3542707347712224</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -1437,19 +1437,19 @@
         <v>188502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>166142</v>
+        <v>166605</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>211404</v>
+        <v>212913</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2581769033961647</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2275522533382117</v>
+        <v>0.2281859463577844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2895440737899813</v>
+        <v>0.291611003359385</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>284076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>268036</v>
+        <v>269563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>299658</v>
+        <v>299052</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7920237251581148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7473026473831906</v>
+        <v>0.7515610320435172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8354689842772799</v>
+        <v>0.8337778060644662</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>266</v>
@@ -1487,19 +1487,19 @@
         <v>257549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>239911</v>
+        <v>239860</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>274912</v>
+        <v>274563</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6933502843152136</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6458662522752557</v>
+        <v>0.6457292652287777</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.740092600738931</v>
+        <v>0.7391523222194828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>551</v>
@@ -1508,19 +1508,19 @@
         <v>541625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>518723</v>
+        <v>517214</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>563985</v>
+        <v>563522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7418230966038353</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7104559262100187</v>
+        <v>0.7083889966406148</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7724477466617883</v>
+        <v>0.7718140536422156</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>25932</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17073</v>
+        <v>18114</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35358</v>
+        <v>36308</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1275484755756079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08397567594487111</v>
+        <v>0.08909673671495009</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1739143124501028</v>
+        <v>0.1785838911831533</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1633,19 +1633,19 @@
         <v>63361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50506</v>
+        <v>49700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78829</v>
+        <v>76605</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3051067982462148</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2432061949536715</v>
+        <v>0.2393257201762462</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3795922830969222</v>
+        <v>0.3688812319780776</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1654,19 +1654,19 @@
         <v>89293</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73344</v>
+        <v>74818</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107399</v>
+        <v>107540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2172694754037969</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1784636543522724</v>
+        <v>0.1820497058168218</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2613260510663661</v>
+        <v>0.2616693648370251</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>177376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167950</v>
+        <v>167000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186235</v>
+        <v>185194</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8724515244243921</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8260856875498972</v>
+        <v>0.8214161088168472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9160243240551289</v>
+        <v>0.91090326328505</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -1704,19 +1704,19 @@
         <v>144307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128839</v>
+        <v>131063</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>157162</v>
+        <v>157968</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6948932017537852</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6204077169030775</v>
+        <v>0.6311187680219223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.756793805046328</v>
+        <v>0.7606742798237538</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>319</v>
@@ -1725,19 +1725,19 @@
         <v>321683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>303577</v>
+        <v>303436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>337632</v>
+        <v>336158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7827305245962031</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7386739489336339</v>
+        <v>0.7383306351629748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8215363456477276</v>
+        <v>0.8179502941831782</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>49753</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38474</v>
+        <v>37605</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62668</v>
+        <v>64003</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1837172217111966</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1420683845554394</v>
+        <v>0.1388620621708347</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2314094940145948</v>
+        <v>0.2363378530677592</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>95</v>
@@ -1850,19 +1850,19 @@
         <v>99138</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85310</v>
+        <v>82895</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>116268</v>
+        <v>114589</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3564269734395713</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3067134030654753</v>
+        <v>0.2980287992921784</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4180135144415119</v>
+        <v>0.4119764813451265</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>145</v>
@@ -1871,19 +1871,19 @@
         <v>148891</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129982</v>
+        <v>129519</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170479</v>
+        <v>169494</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2712256346683974</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.23678162997604</v>
+        <v>0.2359380371990654</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3105523027867118</v>
+        <v>0.3087575281295253</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>221058</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208143</v>
+        <v>206808</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232337</v>
+        <v>233206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8162827782888034</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7685905059854051</v>
+        <v>0.7636621469322401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8579316154445605</v>
+        <v>0.8611379378291649</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>175</v>
@@ -1921,19 +1921,19 @@
         <v>179006</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>161876</v>
+        <v>163555</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192834</v>
+        <v>195249</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6435730265604287</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.581986485558488</v>
+        <v>0.5880235186548736</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6932865969345247</v>
+        <v>0.7019712007078216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>391</v>
@@ -1942,19 +1942,19 @@
         <v>400064</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>378476</v>
+        <v>379461</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418973</v>
+        <v>419436</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7287743653316026</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6894476972132882</v>
+        <v>0.6912424718704745</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.76321837002396</v>
+        <v>0.7640619628009345</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>118933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>100345</v>
+        <v>101647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139861</v>
+        <v>141132</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1933777187212412</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1631558499119119</v>
+        <v>0.1652725519615281</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2274070632149295</v>
+        <v>0.2294734765096058</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -2067,19 +2067,19 @@
         <v>190123</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>168478</v>
+        <v>169614</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>212744</v>
+        <v>215075</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2978967014209365</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.263981189694049</v>
+        <v>0.2657607142890317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.333339490116264</v>
+        <v>0.3369924533353057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>314</v>
@@ -2088,19 +2088,19 @@
         <v>309056</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>281166</v>
+        <v>279214</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>340667</v>
+        <v>341546</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2466043018335913</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.224350049991339</v>
+        <v>0.2227928079653306</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2718281061873681</v>
+        <v>0.2725290230752282</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>496094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>475166</v>
+        <v>473895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>514682</v>
+        <v>513380</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8066222812787588</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7725929367850705</v>
+        <v>0.7705265234903942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8368441500880881</v>
+        <v>0.8347274480384719</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>431</v>
@@ -2138,19 +2138,19 @@
         <v>448096</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>425475</v>
+        <v>423144</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>469741</v>
+        <v>468605</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7021032985790634</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6666605098837363</v>
+        <v>0.6630075466646944</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.736018810305951</v>
+        <v>0.7342392857109684</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>905</v>
@@ -2159,19 +2159,19 @@
         <v>944190</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>912579</v>
+        <v>911700</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>972080</v>
+        <v>974032</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7533956981664087</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7281718938126319</v>
+        <v>0.7274709769247717</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7756499500086609</v>
+        <v>0.7772071920346695</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>186860</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>163895</v>
+        <v>164348</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>213475</v>
+        <v>212623</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2512251520049562</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.220349541047945</v>
+        <v>0.2209583122603676</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2870077939382403</v>
+        <v>0.2858624484670181</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>273</v>
@@ -2284,19 +2284,19 @@
         <v>291624</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>262511</v>
+        <v>265006</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>318484</v>
+        <v>316747</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3722010801731959</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3350449017645172</v>
+        <v>0.3382291139446174</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4064827452668393</v>
+        <v>0.4042661122586748</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>466</v>
@@ -2305,19 +2305,19 @@
         <v>478484</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>445126</v>
+        <v>442798</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>514951</v>
+        <v>515987</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3132860408231127</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2914450327189225</v>
+        <v>0.2899212207212426</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3371629265675128</v>
+        <v>0.3378413588776034</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>556935</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>530320</v>
+        <v>531172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>579900</v>
+        <v>579447</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7487748479950438</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7129922060617597</v>
+        <v>0.7141375515329819</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.779650458952055</v>
+        <v>0.7790416877396323</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>472</v>
@@ -2355,19 +2355,19 @@
         <v>491887</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>465027</v>
+        <v>466764</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>521000</v>
+        <v>518505</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6277989198268041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5935172547331607</v>
+        <v>0.5957338877413253</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6649550982354827</v>
+        <v>0.6617708860553826</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1015</v>
@@ -2376,19 +2376,19 @@
         <v>1048822</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1012355</v>
+        <v>1011319</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1082180</v>
+        <v>1084508</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6867139591768873</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6628370734324871</v>
+        <v>0.6621586411223966</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7085549672810775</v>
+        <v>0.7100787792787573</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>647983</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1977641401705281</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1101</v>
@@ -2501,19 +2501,19 @@
         <v>1132361</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3350976316574633</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1763</v>
@@ -2522,19 +2522,19 @@
         <v>1780344</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2674899589204349</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2628560</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2585072</v>
+        <v>2582836</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2674674</v>
+        <v>2673779</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8022358598294719</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7889631696918983</v>
+        <v>0.788280941881253</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8163097557928803</v>
+        <v>0.8160367299758831</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2196</v>
@@ -2572,19 +2572,19 @@
         <v>2246836</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2193975</v>
+        <v>2193388</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2301916</v>
+        <v>2301881</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6649023683425367</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6492593299875423</v>
+        <v>0.6490855648855722</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6812019502532202</v>
+        <v>0.6811916762808572</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4748</v>
@@ -2593,19 +2593,19 @@
         <v>4875397</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4802507</v>
+        <v>4802297</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4951800</v>
+        <v>4941245</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7325100410795651</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7215585127142404</v>
+        <v>0.7215270007675807</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7439892411471455</v>
+        <v>0.742403425746312</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>67518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54629</v>
+        <v>54884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82113</v>
+        <v>83282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2290790464944558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1853474493248623</v>
+        <v>0.186213564692099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2785951753753679</v>
+        <v>0.282562933099439</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -2962,19 +2962,19 @@
         <v>118769</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101387</v>
+        <v>99913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135961</v>
+        <v>136870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4134778371730271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3529624909677987</v>
+        <v>0.3478318879450861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.473329343575828</v>
+        <v>0.4764918290891579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -2983,19 +2983,19 @@
         <v>186288</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165102</v>
+        <v>162596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210981</v>
+        <v>211605</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3200913747850261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2836895322995604</v>
+        <v>0.2793827551409314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3625216528089383</v>
+        <v>0.3635926163031323</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>227220</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212625</v>
+        <v>211456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240109</v>
+        <v>239854</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7709209535055441</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7214048246246321</v>
+        <v>0.7174370669005611</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8146525506751378</v>
+        <v>0.813786435307901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -3033,19 +3033,19 @@
         <v>168476</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151284</v>
+        <v>150375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185858</v>
+        <v>187332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5865221628269729</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5266706564241719</v>
+        <v>0.5235081709108422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6470375090322013</v>
+        <v>0.6521681120549141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>366</v>
@@ -3054,19 +3054,19 @@
         <v>395695</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>371002</v>
+        <v>370378</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>416881</v>
+        <v>419387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6799086252149739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6374783471910617</v>
+        <v>0.6364073836968679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7163104677004397</v>
+        <v>0.7206172448590689</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>105314</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87072</v>
+        <v>86994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127850</v>
+        <v>128009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2083248291526704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.172239840825211</v>
+        <v>0.1720857181915991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.252904955063898</v>
+        <v>0.2532183768306465</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>166</v>
@@ -3179,19 +3179,19 @@
         <v>181939</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>161398</v>
+        <v>161102</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206776</v>
+        <v>205863</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3473683365991396</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3081487639763583</v>
+        <v>0.3075841380069378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3947886108734184</v>
+        <v>0.3930454853781515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>255</v>
@@ -3200,19 +3200,19 @@
         <v>287253</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>256166</v>
+        <v>258736</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>315436</v>
+        <v>321078</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2790784197727906</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2488758515459576</v>
+        <v>0.251373245442811</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.306458736366065</v>
+        <v>0.3119407031963469</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>400213</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>377677</v>
+        <v>377518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>418455</v>
+        <v>418533</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7916751708473295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7470950449361019</v>
+        <v>0.7467816231693536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.827760159174789</v>
+        <v>0.8279142818084009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -3250,19 +3250,19 @@
         <v>341826</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316989</v>
+        <v>317902</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362367</v>
+        <v>362663</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6526316634008604</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6052113891265813</v>
+        <v>0.6069545146218486</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6918512360236416</v>
+        <v>0.6924158619930624</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -3271,19 +3271,19 @@
         <v>742039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>713856</v>
+        <v>708214</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>773126</v>
+        <v>770556</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7209215802272094</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6935412636339349</v>
+        <v>0.6880592968036531</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7511241484540421</v>
+        <v>0.7486267545571891</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>90667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76218</v>
+        <v>75170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109355</v>
+        <v>107638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2797965538909245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2352064988414732</v>
+        <v>0.2319722103558878</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.337468122166676</v>
+        <v>0.3321689427752461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -3396,19 +3396,19 @@
         <v>124119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>106285</v>
+        <v>107144</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142137</v>
+        <v>143217</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3639635773268314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3116665003072353</v>
+        <v>0.3141864300359595</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4167987804600734</v>
+        <v>0.4199656668199455</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>200</v>
@@ -3417,19 +3417,19 @@
         <v>214786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>191921</v>
+        <v>191040</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239060</v>
+        <v>239482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3229541331885493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2885745350879236</v>
+        <v>0.2872489638665739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3594523565277094</v>
+        <v>0.3600877476211679</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>233379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214691</v>
+        <v>216408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>247828</v>
+        <v>248876</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7202034461090755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6625318778333233</v>
+        <v>0.6678310572247539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7647935011585267</v>
+        <v>0.7680277896441121</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>202</v>
@@ -3467,19 +3467,19 @@
         <v>216901</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>198883</v>
+        <v>197803</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>234735</v>
+        <v>233876</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6360364226731686</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5832012195399265</v>
+        <v>0.5800343331800544</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6883334996927646</v>
+        <v>0.6858135699640404</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>436</v>
@@ -3488,19 +3488,19 @@
         <v>450280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>426006</v>
+        <v>425584</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>473145</v>
+        <v>474026</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6770458668114506</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6405476434722905</v>
+        <v>0.6399122523788321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7114254649120764</v>
+        <v>0.7127510361334262</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>88711</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71022</v>
+        <v>72437</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106101</v>
+        <v>106032</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2372069032021727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1899076443965328</v>
+        <v>0.1936913510265771</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2837057494579454</v>
+        <v>0.283522452719672</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -3613,19 +3613,19 @@
         <v>171912</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>153814</v>
+        <v>150513</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>192934</v>
+        <v>191284</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4419897183354707</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3954574520362003</v>
+        <v>0.3869704135856979</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4960358610469878</v>
+        <v>0.4917946964102161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>246</v>
@@ -3634,19 +3634,19 @@
         <v>260623</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>232087</v>
+        <v>233940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>287805</v>
+        <v>288017</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3416072480787984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3042037673876438</v>
+        <v>0.3066320021176782</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3772346005421905</v>
+        <v>0.3775124366663677</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>285271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>267881</v>
+        <v>267950</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302960</v>
+        <v>301545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7627930967978273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7162942505420546</v>
+        <v>0.716477547280328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8100923556034672</v>
+        <v>0.8063086489734227</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>205</v>
@@ -3684,19 +3684,19 @@
         <v>217039</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>196017</v>
+        <v>197667</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>235137</v>
+        <v>238438</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5580102816645293</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5039641389530123</v>
+        <v>0.5082053035897839</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6045425479637998</v>
+        <v>0.6130295864143021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>469</v>
@@ -3705,19 +3705,19 @@
         <v>502310</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>475128</v>
+        <v>474916</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>530846</v>
+        <v>528993</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6583927519212016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6227653994578096</v>
+        <v>0.622487563333632</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6957962326123562</v>
+        <v>0.6933679978823217</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>59701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45751</v>
+        <v>46974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73744</v>
+        <v>74446</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2807903377302403</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2151793532194108</v>
+        <v>0.2209324222634621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3468364162761272</v>
+        <v>0.3501415508178485</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>124</v>
@@ -3830,19 +3830,19 @@
         <v>130021</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>115635</v>
+        <v>114314</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>144082</v>
+        <v>142728</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5921030471159773</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5265931782038555</v>
+        <v>0.5205761183715925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6561386098991808</v>
+        <v>0.6499738193663358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -3851,19 +3851,19 @@
         <v>189722</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169122</v>
+        <v>169719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>210739</v>
+        <v>212089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4389579440048409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3912975130174637</v>
+        <v>0.3926771854269865</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4875855585253962</v>
+        <v>0.4907101757375204</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>152917</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>138874</v>
+        <v>138172</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166867</v>
+        <v>165644</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7192096622697597</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6531635837238721</v>
+        <v>0.6498584491821514</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7848206467805887</v>
+        <v>0.779067577736538</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>88</v>
@@ -3901,19 +3901,19 @@
         <v>89570</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75509</v>
+        <v>76863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>103956</v>
+        <v>105277</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4078969528840227</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.343861390100819</v>
+        <v>0.3500261806336642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4734068217961445</v>
+        <v>0.4794238816284073</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>230</v>
@@ -3922,19 +3922,19 @@
         <v>242487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>221470</v>
+        <v>220120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263087</v>
+        <v>262490</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.561042055995159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5124144414746039</v>
+        <v>0.5092898242624797</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6087024869825364</v>
+        <v>0.6073228145730135</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>89987</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73453</v>
+        <v>74675</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105632</v>
+        <v>107313</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3284408023578856</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2680950129344964</v>
+        <v>0.2725553481349389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3855465034194832</v>
+        <v>0.391679491492784</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -4047,19 +4047,19 @@
         <v>128525</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113019</v>
+        <v>112168</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145171</v>
+        <v>144437</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4589655230385511</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4035957980624815</v>
+        <v>0.4005564516033233</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5184119469895728</v>
+        <v>0.5157904431260746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>212</v>
@@ -4068,19 +4068,19 @@
         <v>218511</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>196243</v>
+        <v>194885</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>244813</v>
+        <v>241818</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3944158492845918</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3542224035801715</v>
+        <v>0.3517705225571892</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4418914638613585</v>
+        <v>0.4364858906284032</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>183994</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>168349</v>
+        <v>166668</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>200528</v>
+        <v>199306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6715591976421145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6144534965805165</v>
+        <v>0.6083205085072161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7319049870655034</v>
+        <v>0.7274446518650611</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>143</v>
@@ -4118,19 +4118,19 @@
         <v>151506</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134860</v>
+        <v>135594</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>167012</v>
+        <v>167863</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5410344769614489</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4815880530104271</v>
+        <v>0.4842095568739255</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5964042019375185</v>
+        <v>0.5994435483966767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>318</v>
@@ -4139,19 +4139,19 @@
         <v>335501</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>309199</v>
+        <v>312194</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>357769</v>
+        <v>359127</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6055841507154082</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5581085361386412</v>
+        <v>0.5635141093715967</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6457775964198283</v>
+        <v>0.6482294774428108</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>177391</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>155622</v>
+        <v>154117</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>204192</v>
+        <v>202361</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2676432155239659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2347992769960748</v>
+        <v>0.2325288346488587</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3080810921064586</v>
+        <v>0.3053182994766598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>249</v>
@@ -4264,19 +4264,19 @@
         <v>274951</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>249984</v>
+        <v>245922</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>301225</v>
+        <v>302122</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3962676461644473</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3602839549067262</v>
+        <v>0.3544301635461398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4341342419073431</v>
+        <v>0.435426153894689</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>412</v>
@@ -4285,19 +4285,19 @@
         <v>452342</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>416977</v>
+        <v>420657</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>484989</v>
+        <v>490993</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3334280787644162</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3073596141316776</v>
+        <v>0.3100726878457403</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3574928311429286</v>
+        <v>0.3619177824701217</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>485397</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>458596</v>
+        <v>460427</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>507166</v>
+        <v>508671</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7323567844760341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6919189078935413</v>
+        <v>0.6946817005233399</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7652007230039251</v>
+        <v>0.7674711653511412</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>387</v>
@@ -4335,19 +4335,19 @@
         <v>418902</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>392628</v>
+        <v>391731</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>443869</v>
+        <v>447931</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6037323538355527</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5658657580926568</v>
+        <v>0.564573846105311</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6397160450932738</v>
+        <v>0.6455698364538608</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>842</v>
@@ -4356,19 +4356,19 @@
         <v>904299</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>871652</v>
+        <v>865648</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>939664</v>
+        <v>935984</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6665719212355837</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6425071688570715</v>
+        <v>0.6380822175298784</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6926403858683224</v>
+        <v>0.68992731215426</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>153565</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130306</v>
+        <v>130997</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>176422</v>
+        <v>178401</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1971059800300489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1672521462587532</v>
+        <v>0.168139266437971</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2264441950365772</v>
+        <v>0.2289837495663025</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>226</v>
@@ -4481,19 +4481,19 @@
         <v>246340</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>220033</v>
+        <v>220557</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>275104</v>
+        <v>273864</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2990100993095028</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2670785006709165</v>
+        <v>0.2677137993586387</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3339241418216053</v>
+        <v>0.3324190654382775</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>365</v>
@@ -4502,19 +4502,19 @@
         <v>399905</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>362546</v>
+        <v>366546</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>439471</v>
+        <v>439642</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2494806317394321</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2261739468756837</v>
+        <v>0.2286695163805424</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2741637744902311</v>
+        <v>0.2742701153136993</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>625533</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>602676</v>
+        <v>600697</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>648792</v>
+        <v>648101</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8028940199699511</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7735558049634227</v>
+        <v>0.7710162504336983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8327478537412467</v>
+        <v>0.8318607335620293</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>531</v>
@@ -4552,19 +4552,19 @@
         <v>577513</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>548749</v>
+        <v>549989</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>603820</v>
+        <v>603296</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7009899006904972</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6660758581783945</v>
+        <v>0.6675809345617223</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7329214993290832</v>
+        <v>0.7322862006413612</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1109</v>
@@ -4573,19 +4573,19 @@
         <v>1203046</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1163480</v>
+        <v>1163309</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1240405</v>
+        <v>1236405</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7505193682605679</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7258362255097688</v>
+        <v>0.7257298846863005</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7738260531243162</v>
+        <v>0.7713304836194576</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>832854</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2430427006172313</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1279</v>
@@ -4698,19 +4698,19 @@
         <v>1376577</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.386862680234676</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2040</v>
@@ -4719,19 +4719,19 @@
         <v>2209431</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3163067660577515</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2593925</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2538012</v>
+        <v>2538217</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2643446</v>
+        <v>2646334</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7569572993827687</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7406407261119662</v>
+        <v>0.740700406957338</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7714083498286523</v>
+        <v>0.7722510185842242</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2019</v>
@@ -4769,19 +4769,19 @@
         <v>2181732</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2124249</v>
+        <v>2122179</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2244809</v>
+        <v>2239860</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.613137319765324</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5969827831679224</v>
+        <v>0.5964008512562676</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6308639790333498</v>
+        <v>0.6294730825829981</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4467</v>
@@ -4790,19 +4790,19 @@
         <v>4775657</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4696583</v>
+        <v>4699251</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4859049</v>
+        <v>4858340</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6836932339422485</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6723727318820589</v>
+        <v>0.6727546630065062</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6956317279060483</v>
+        <v>0.6955302379936972</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>72497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58190</v>
+        <v>58450</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87889</v>
+        <v>88731</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2467892390516027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1980862855339187</v>
+        <v>0.198969618180507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2991859711231581</v>
+        <v>0.3020508347563337</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -5159,19 +5159,19 @@
         <v>120089</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102271</v>
+        <v>104514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137056</v>
+        <v>136851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4159618325929351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3542426489793263</v>
+        <v>0.3620138259420813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4747292143760993</v>
+        <v>0.4740203532475532</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -5180,19 +5180,19 @@
         <v>192586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>171254</v>
+        <v>168340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>219507</v>
+        <v>216249</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.330641005326045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2940171435942084</v>
+        <v>0.2890134158730105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.376860173031178</v>
+        <v>0.3712665787264214</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>221264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205872</v>
+        <v>205030</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>235571</v>
+        <v>235311</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7532107609483973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7008140288768419</v>
+        <v>0.6979491652436662</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8019137144660814</v>
+        <v>0.801030381819493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -5230,19 +5230,19 @@
         <v>168614</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151647</v>
+        <v>151852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186432</v>
+        <v>184189</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5840381674070649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5252707856239005</v>
+        <v>0.5259796467524468</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6457573510206736</v>
+        <v>0.6379861740579187</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>363</v>
@@ -5251,19 +5251,19 @@
         <v>389878</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>362957</v>
+        <v>366215</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>411210</v>
+        <v>414124</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.669358994673955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6231398269688216</v>
+        <v>0.6287334212735782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7059828564057914</v>
+        <v>0.710986584126989</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>109496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91878</v>
+        <v>92596</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>129856</v>
+        <v>129318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2178690418880978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1828145886052847</v>
+        <v>0.1842438632033138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2583811055710426</v>
+        <v>0.2573113648864701</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -5376,19 +5376,19 @@
         <v>184649</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>164912</v>
+        <v>163341</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>208305</v>
+        <v>206648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3530006098598519</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3152694639339859</v>
+        <v>0.3122662809709099</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.398225263066993</v>
+        <v>0.395057712719651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>273</v>
@@ -5397,19 +5397,19 @@
         <v>294144</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>264283</v>
+        <v>265985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>324416</v>
+        <v>324838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.286785841901306</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.257671519545319</v>
+        <v>0.2593310650158087</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3163000508038932</v>
+        <v>0.3167119701343277</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>393079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372719</v>
+        <v>373257</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>410697</v>
+        <v>409979</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7821309581119023</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7416188944289575</v>
+        <v>0.7426886351135307</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8171854113947153</v>
+        <v>0.8157561367966861</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>320</v>
@@ -5447,19 +5447,19 @@
         <v>338435</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314779</v>
+        <v>316436</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358172</v>
+        <v>359743</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6469993901401481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.601774736933007</v>
+        <v>0.6049422872803489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.684730536066014</v>
+        <v>0.68773371902909</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>686</v>
@@ -5468,19 +5468,19 @@
         <v>731515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>701243</v>
+        <v>700821</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>761376</v>
+        <v>759674</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.713214158098694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6836999491961077</v>
+        <v>0.6832880298656724</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7423284804546814</v>
+        <v>0.7406689349841913</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>60809</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47536</v>
+        <v>48751</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75263</v>
+        <v>74648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1908845062527285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1492185268759481</v>
+        <v>0.1530321447335091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2362552219131541</v>
+        <v>0.2343264288443312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -5593,19 +5593,19 @@
         <v>107569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91459</v>
+        <v>90908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126370</v>
+        <v>124164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3198509394771462</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2719478526812554</v>
+        <v>0.2703096210359245</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.375754796520911</v>
+        <v>0.3691971681497515</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -5614,19 +5614,19 @@
         <v>168378</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147302</v>
+        <v>145823</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192593</v>
+        <v>189541</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2571149146599854</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2249313929390132</v>
+        <v>0.2226728467401577</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2940918657872648</v>
+        <v>0.2894311824767893</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>257756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>243302</v>
+        <v>243917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271029</v>
+        <v>269814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8091154937472715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.763744778086846</v>
+        <v>0.7656735711556687</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8507814731240519</v>
+        <v>0.8469678552664909</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>234</v>
@@ -5664,19 +5664,19 @@
         <v>228740</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>209939</v>
+        <v>212145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>244850</v>
+        <v>245401</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6801490605228538</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.624245203479089</v>
+        <v>0.6308028318502484</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7280521473187446</v>
+        <v>0.7296903789640754</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>502</v>
@@ -5685,19 +5685,19 @@
         <v>486496</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>462281</v>
+        <v>465333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>507572</v>
+        <v>509051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7428850853400146</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7059081342127351</v>
+        <v>0.7105688175232108</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7750686070609868</v>
+        <v>0.7773271532598423</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>106587</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90574</v>
+        <v>88897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126204</v>
+        <v>124125</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2881006998065621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2448188749184224</v>
+        <v>0.2402867029092144</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.341125339482579</v>
+        <v>0.3355064430149632</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -5810,19 +5810,19 @@
         <v>166458</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145799</v>
+        <v>147968</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>185712</v>
+        <v>189223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4298104967571767</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3764669092985049</v>
+        <v>0.3820658806844289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4795242119197972</v>
+        <v>0.4885919381249545</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>253</v>
@@ -5831,19 +5831,19 @@
         <v>273045</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246322</v>
+        <v>246232</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>301011</v>
+        <v>300351</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3605761212779953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3252856382803226</v>
+        <v>0.3251679735823229</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3975074793595574</v>
+        <v>0.396635154243463</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>263377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>243760</v>
+        <v>245839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>279390</v>
+        <v>281067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7118993001934378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6588746605174209</v>
+        <v>0.6644935569850366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7551811250815775</v>
+        <v>0.7597132970907855</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>212</v>
@@ -5881,19 +5881,19 @@
         <v>220825</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>201571</v>
+        <v>198060</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241484</v>
+        <v>239315</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5701895032428234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5204757880802027</v>
+        <v>0.5114080618750455</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6235330907014951</v>
+        <v>0.6179341193155712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>459</v>
@@ -5902,19 +5902,19 @@
         <v>484202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>456236</v>
+        <v>456896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>510925</v>
+        <v>511015</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6394238787220047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6024925206404425</v>
+        <v>0.6033648457565369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6747143617196774</v>
+        <v>0.6748320264176771</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>48532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37618</v>
+        <v>37772</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62553</v>
+        <v>62381</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2297686661576292</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1780994498944617</v>
+        <v>0.1788281500677561</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2961486714743016</v>
+        <v>0.2953374719802038</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>86</v>
@@ -6027,19 +6027,19 @@
         <v>88235</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74224</v>
+        <v>73684</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103245</v>
+        <v>101831</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4036615735819903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3395641608465765</v>
+        <v>0.3370910144047198</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4723282830987445</v>
+        <v>0.4658612976416381</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>135</v>
@@ -6048,19 +6048,19 @@
         <v>136767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117766</v>
+        <v>119376</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155718</v>
+        <v>157705</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3182051985375679</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2739965057676636</v>
+        <v>0.2777428482538288</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3622971439461557</v>
+        <v>0.3669196676468875</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>162689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148668</v>
+        <v>148840</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>173603</v>
+        <v>173449</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7702313338423709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7038513285256979</v>
+        <v>0.7046625280197962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8219005501055382</v>
+        <v>0.8211718499322439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>137</v>
@@ -6098,19 +6098,19 @@
         <v>130352</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>115342</v>
+        <v>116756</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144363</v>
+        <v>144903</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5963384264180096</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5276717169012555</v>
+        <v>0.5341387023583625</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6604358391534235</v>
+        <v>0.6629089855952802</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>300</v>
@@ -6119,19 +6119,19 @@
         <v>293041</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>274090</v>
+        <v>272103</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>312042</v>
+        <v>310432</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6817948014624321</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6377028560538444</v>
+        <v>0.6330803323531125</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7260034942323366</v>
+        <v>0.722257151746171</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>62993</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49101</v>
+        <v>50205</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79109</v>
+        <v>77357</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2394038541718011</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1866071141011166</v>
+        <v>0.1908053074293849</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3006554393932613</v>
+        <v>0.2939949549753921</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -6244,19 +6244,19 @@
         <v>94553</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79883</v>
+        <v>79913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111027</v>
+        <v>111599</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3462032811416638</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2924901556270998</v>
+        <v>0.292597407761488</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4065218400720862</v>
+        <v>0.4086151252552864</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>150</v>
@@ -6265,19 +6265,19 @@
         <v>157546</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137256</v>
+        <v>136445</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>178711</v>
+        <v>178643</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2937985922624354</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2559600526263801</v>
+        <v>0.2544486368820294</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3332674014891596</v>
+        <v>0.3331418645873901</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>200130</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>184014</v>
+        <v>185766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214022</v>
+        <v>212918</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7605961458281989</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6993445606067387</v>
+        <v>0.7060050450246079</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8133928858988834</v>
+        <v>0.8091946925706152</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>178</v>
@@ -6315,19 +6315,19 @@
         <v>178562</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162088</v>
+        <v>161516</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>193232</v>
+        <v>193202</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6537967188583362</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.593478159927914</v>
+        <v>0.5913848747447141</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7075098443729008</v>
+        <v>0.7074025922385121</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>372</v>
@@ -6336,19 +6336,19 @@
         <v>378692</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>357527</v>
+        <v>357595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>398982</v>
+        <v>399793</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7062014077375646</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6667325985108403</v>
+        <v>0.66685813541261</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.74403994737362</v>
+        <v>0.7455513631179707</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>141953</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>121681</v>
+        <v>122690</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>165367</v>
+        <v>165475</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2162073291563794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1853323022751412</v>
+        <v>0.1868678327652409</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2518699799938018</v>
+        <v>0.2520346690080031</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>199</v>
@@ -6461,19 +6461,19 @@
         <v>224996</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>201072</v>
+        <v>199822</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>252547</v>
+        <v>250432</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3254709985397868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2908627494707621</v>
+        <v>0.2890556217527533</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3653254494353362</v>
+        <v>0.3622652630554929</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>329</v>
@@ -6482,19 +6482,19 @@
         <v>366949</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334560</v>
+        <v>332878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>403448</v>
+        <v>403875</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2722471015140784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2482174769707541</v>
+        <v>0.2469695907737626</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2993266123300444</v>
+        <v>0.2996433025131358</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>514605</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>491191</v>
+        <v>491083</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>534877</v>
+        <v>533868</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7837926708436206</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7481300200061982</v>
+        <v>0.7479653309919969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8146676977248588</v>
+        <v>0.8131321672347591</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>447</v>
@@ -6532,19 +6532,19 @@
         <v>466298</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>438747</v>
+        <v>440862</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>490222</v>
+        <v>491472</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6745290014602132</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6346745505646638</v>
+        <v>0.637734736944507</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7091372505292378</v>
+        <v>0.710944378247246</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>897</v>
@@ -6553,19 +6553,19 @@
         <v>980903</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>944404</v>
+        <v>943977</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1013292</v>
+        <v>1014974</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7277528984859216</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7006733876699559</v>
+        <v>0.7003566974868646</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7517825230292459</v>
+        <v>0.7530304092262374</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>206742</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>181462</v>
+        <v>182595</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>231563</v>
+        <v>232519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2655366960599278</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2330670142069965</v>
+        <v>0.2345220284833368</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2974157395363237</v>
+        <v>0.2986443200687163</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>247</v>
@@ -6678,19 +6678,19 @@
         <v>293231</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>261497</v>
+        <v>264735</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>321689</v>
+        <v>326477</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3549298533718778</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3165180666375086</v>
+        <v>0.3204371205384186</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3893752014388482</v>
+        <v>0.3951701374483705</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>449</v>
@@ -6699,19 +6699,19 @@
         <v>499974</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>465111</v>
+        <v>463458</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>540146</v>
+        <v>538646</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3115586165029667</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2898338415396355</v>
+        <v>0.2888041739194748</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3365917785747887</v>
+        <v>0.3356574197199937</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>571841</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>547020</v>
+        <v>546064</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>597121</v>
+        <v>595988</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7344633039400722</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7025842604636763</v>
+        <v>0.7013556799312837</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7669329857930035</v>
+        <v>0.7654779715166632</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>508</v>
@@ -6749,19 +6749,19 @@
         <v>532936</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>504478</v>
+        <v>499690</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>564670</v>
+        <v>561432</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6450701466281222</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6106247985611514</v>
+        <v>0.6048298625516291</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6834819333624914</v>
+        <v>0.6795628794615814</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1056</v>
@@ -6770,19 +6770,19 @@
         <v>1104776</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1064604</v>
+        <v>1066104</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1139639</v>
+        <v>1141292</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6884413834970333</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6634082214252113</v>
+        <v>0.6643425802800064</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7101661584603645</v>
+        <v>0.7111958260805252</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>809608</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2385164248893366</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1137</v>
@@ -6895,19 +6895,19 @@
         <v>1279781</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3610569180493427</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1934</v>
@@ -6916,19 +6916,19 @@
         <v>2089390</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3011128600502788</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2584742</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2532098</v>
+        <v>2534274</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2633998</v>
+        <v>2630276</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7614835751106634</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7459741994392232</v>
+        <v>0.7466154825692544</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7759948987266869</v>
+        <v>0.7748982617606555</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2201</v>
@@ -6966,19 +6966,19 @@
         <v>2264761</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2205252</v>
+        <v>2208794</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2324091</v>
+        <v>2331679</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6389430819506573</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6221544277663508</v>
+        <v>0.6231536873871932</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6556815827050075</v>
+        <v>0.6578224130927982</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4635</v>
@@ -6987,19 +6987,19 @@
         <v>4849502</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4772231</v>
+        <v>4775291</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4937298</v>
+        <v>4925148</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6988871399497212</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6877511663029169</v>
+        <v>0.6881920911184298</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.711539823844533</v>
+        <v>0.7097887586284245</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>87268</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72062</v>
+        <v>74045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102274</v>
+        <v>105306</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2737011012874566</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2260110049781997</v>
+        <v>0.2322279316989836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3207648984529114</v>
+        <v>0.3302728916046968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>201</v>
@@ -7356,19 +7356,19 @@
         <v>103917</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91735</v>
+        <v>91178</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117506</v>
+        <v>117357</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3287869481155549</v>
+        <v>0.328786948115555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2902449825697222</v>
+        <v>0.2884836090904478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3717835067907923</v>
+        <v>0.37131258188935</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>307</v>
@@ -7377,19 +7377,19 @@
         <v>191185</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>173029</v>
+        <v>172021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>211722</v>
+        <v>212513</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3011232240103378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2725264146896192</v>
+        <v>0.2709388932897768</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3334690883856439</v>
+        <v>0.3347151205608037</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>231577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>216571</v>
+        <v>213539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246783</v>
+        <v>244800</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7262988987125433</v>
+        <v>0.7262988987125435</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6792351015470887</v>
+        <v>0.669727108395303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7739889950218</v>
+        <v>0.7677720683010164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>337</v>
@@ -7427,19 +7427,19 @@
         <v>212144</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>198555</v>
+        <v>198704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>224326</v>
+        <v>224883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.671213051884445</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6282164932092076</v>
+        <v>0.6286874181106502</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7097550174302778</v>
+        <v>0.7115163909095522</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>562</v>
@@ -7448,19 +7448,19 @@
         <v>443721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>423184</v>
+        <v>422393</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>461877</v>
+        <v>462885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6988767759896624</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6665309116143561</v>
+        <v>0.6652848794391963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7274735853103809</v>
+        <v>0.7290611067102233</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>138156</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116061</v>
+        <v>115874</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162125</v>
+        <v>163760</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2603533084452597</v>
+        <v>0.2603533084452598</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2187163202162479</v>
+        <v>0.2183637585364372</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3055231929836841</v>
+        <v>0.3086036421906069</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>311</v>
@@ -7573,19 +7573,19 @@
         <v>216973</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194872</v>
+        <v>196691</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>238530</v>
+        <v>236145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3970278907202671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3565852876868082</v>
+        <v>0.3599149110748766</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4364725689312943</v>
+        <v>0.4321081722661702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>431</v>
@@ -7594,19 +7594,19 @@
         <v>355129</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>324445</v>
+        <v>322961</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>388435</v>
+        <v>385928</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3296960055024167</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3012090019988952</v>
+        <v>0.2998315705953105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3606168022536084</v>
+        <v>0.3582892722734136</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>392491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368522</v>
+        <v>366887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>414586</v>
+        <v>414773</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7396466915547402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6944768070163152</v>
+        <v>0.6913963578093928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.781283679783752</v>
+        <v>0.7816362414635627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>406</v>
@@ -7644,19 +7644,19 @@
         <v>329521</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>307964</v>
+        <v>310349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>351622</v>
+        <v>349803</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6029721092797329</v>
+        <v>0.602972109279733</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5635274310687056</v>
+        <v>0.56789182773383</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6434147123131917</v>
+        <v>0.6400850889251234</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>668</v>
@@ -7665,19 +7665,19 @@
         <v>722012</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>688706</v>
+        <v>691213</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>752696</v>
+        <v>754180</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6703039944975834</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6393831977463914</v>
+        <v>0.6417107277265865</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6987909980011047</v>
+        <v>0.7001684294046894</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>113388</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99015</v>
+        <v>98164</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129257</v>
+        <v>129623</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3588321007679031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3133453500303989</v>
+        <v>0.3106538583662034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4090494038331263</v>
+        <v>0.410209311576231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>291</v>
@@ -7790,19 +7790,19 @@
         <v>168565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152437</v>
+        <v>153587</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>183000</v>
+        <v>185880</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4729899828243018</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4277363236555624</v>
+        <v>0.4309623297843297</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5134946108807916</v>
+        <v>0.5215758042762937</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>447</v>
@@ -7811,19 +7811,19 @@
         <v>281953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262857</v>
+        <v>259981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>303541</v>
+        <v>302667</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4193396345246901</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3909374143132133</v>
+        <v>0.3866613903934416</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4514463746843386</v>
+        <v>0.4501461302767015</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>202605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>186736</v>
+        <v>186370</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>216978</v>
+        <v>217829</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6411678992320968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5909505961668738</v>
+        <v>0.5897906884237689</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6866546499696009</v>
+        <v>0.6893461416337965</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -7861,19 +7861,19 @@
         <v>187816</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>173381</v>
+        <v>170501</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>203944</v>
+        <v>202794</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5270100171756983</v>
+        <v>0.5270100171756981</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4865053891192079</v>
+        <v>0.4784241957237062</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5722636763444375</v>
+        <v>0.5690376702156702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>449</v>
@@ -7882,19 +7882,19 @@
         <v>390422</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>368834</v>
+        <v>369708</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>409518</v>
+        <v>412394</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.58066036547531</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5485536253156614</v>
+        <v>0.5498538697232984</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6090625856867866</v>
+        <v>0.6133386096065577</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>123671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103262</v>
+        <v>102681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146377</v>
+        <v>145923</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3314299581576158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2767336653748673</v>
+        <v>0.2751773199421705</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.392278144988346</v>
+        <v>0.3910628986860127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>349</v>
@@ -8007,19 +8007,19 @@
         <v>199328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>181317</v>
+        <v>181722</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>217886</v>
+        <v>219855</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4723842418903515</v>
+        <v>0.4723842418903516</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4297019418186083</v>
+        <v>0.4306606100834823</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5163641299682801</v>
+        <v>0.5210307053445763</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>475</v>
@@ -8028,19 +8028,19 @@
         <v>323000</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>293690</v>
+        <v>290490</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>352500</v>
+        <v>353935</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4062340981680715</v>
+        <v>0.4062340981680714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3693717669461815</v>
+        <v>0.3653475014287497</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4433370980068235</v>
+        <v>0.4451407638433236</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>249474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>226768</v>
+        <v>227222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>269883</v>
+        <v>270464</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6685700418423843</v>
+        <v>0.6685700418423842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6077218550116543</v>
+        <v>0.6089371013139872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7232663346251326</v>
+        <v>0.7248226800578295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>250</v>
@@ -8078,19 +8078,19 @@
         <v>222633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>204075</v>
+        <v>202106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>240644</v>
+        <v>240239</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5276157581096486</v>
+        <v>0.5276157581096488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4836358700317205</v>
+        <v>0.4789692946554237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5702980581813917</v>
+        <v>0.5693393899165177</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>416</v>
@@ -8099,19 +8099,19 @@
         <v>472107</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>442607</v>
+        <v>441172</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>501417</v>
+        <v>504617</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5937659018319285</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5566629019931765</v>
+        <v>0.5548592361566762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6306282330538185</v>
+        <v>0.6346524985712502</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>64127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53672</v>
+        <v>53856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75387</v>
+        <v>76268</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3118010227352423</v>
+        <v>0.3118010227352422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2609683525977308</v>
+        <v>0.2618613657463152</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3665500786235263</v>
+        <v>0.3708367455159258</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>280</v>
@@ -8224,19 +8224,19 @@
         <v>119015</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>108034</v>
+        <v>107584</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130149</v>
+        <v>130629</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.519902274863031</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4719342568726149</v>
+        <v>0.4699655948742504</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5685390513776033</v>
+        <v>0.5706373452476206</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>383</v>
@@ -8245,19 +8245,19 @@
         <v>183141</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>167517</v>
+        <v>166817</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199707</v>
+        <v>199149</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4214190079226841</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3854662278995169</v>
+        <v>0.3838566416682558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4595388213524799</v>
+        <v>0.458254759893565</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>141538</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130278</v>
+        <v>129397</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>151993</v>
+        <v>151809</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6881989772647576</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6334499213764736</v>
+        <v>0.6291632544840742</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7390316474022692</v>
+        <v>0.7381386342536848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>215</v>
@@ -8295,19 +8295,19 @@
         <v>109903</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98769</v>
+        <v>98289</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120884</v>
+        <v>121334</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4800977251369691</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4314609486223968</v>
+        <v>0.4293626547523795</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5280657431273852</v>
+        <v>0.5300344051257514</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>391</v>
@@ -8316,19 +8316,19 @@
         <v>251441</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>234875</v>
+        <v>235433</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>267065</v>
+        <v>267765</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5785809920773159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.54046117864752</v>
+        <v>0.5417452401064351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6145337721004828</v>
+        <v>0.6161433583317442</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>115244</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>100596</v>
+        <v>99984</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129433</v>
+        <v>129025</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.425716283307011</v>
+        <v>0.4257162833070109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3716037262333722</v>
+        <v>0.3693440126129383</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4781299165622572</v>
+        <v>0.4766205613812812</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>272</v>
@@ -8441,19 +8441,19 @@
         <v>129910</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>116397</v>
+        <v>117534</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>141350</v>
+        <v>142175</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4925494762490745</v>
+        <v>0.4925494762490743</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4413161120561188</v>
+        <v>0.4456254917751315</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5359255922205139</v>
+        <v>0.5390537527488297</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>470</v>
@@ -8462,19 +8462,19 @@
         <v>245154</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>226420</v>
+        <v>225239</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>264181</v>
+        <v>265325</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.458697917384036</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4236447796554951</v>
+        <v>0.4214350597822155</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4942973816898978</v>
+        <v>0.4964388346835102</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>155463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141274</v>
+        <v>141682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>170111</v>
+        <v>170723</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5742837166929891</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.521870083437743</v>
+        <v>0.5233794386187187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.628396273766628</v>
+        <v>0.6306559873870614</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>188</v>
@@ -8512,19 +8512,19 @@
         <v>133840</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>122400</v>
+        <v>121575</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>147353</v>
+        <v>146216</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5074505237509256</v>
+        <v>0.5074505237509254</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4640744077794861</v>
+        <v>0.4609462472511703</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5586838879438814</v>
+        <v>0.5543745082248683</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>361</v>
@@ -8533,19 +8533,19 @@
         <v>289303</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>270276</v>
+        <v>269132</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>308037</v>
+        <v>309218</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5413020826159639</v>
+        <v>0.541302082615964</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5057026183101021</v>
+        <v>0.5035611653164902</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5763552203445048</v>
+        <v>0.5785649402177846</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>289551</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>260020</v>
+        <v>260280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>318563</v>
+        <v>320199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4023290157077219</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3612963838502114</v>
+        <v>0.3616570143087367</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4426408120819936</v>
+        <v>0.4449135825128276</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>621</v>
@@ -8658,19 +8658,19 @@
         <v>478989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>453619</v>
+        <v>452989</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>503579</v>
+        <v>504014</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6204056454359628</v>
+        <v>0.6204056454359629</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5875461208524657</v>
+        <v>0.5867305484231921</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.652256456231211</v>
+        <v>0.6528192103234974</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>891</v>
@@ -8679,19 +8679,19 @@
         <v>768539</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>726105</v>
+        <v>725050</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>809178</v>
+        <v>807682</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5151952710020654</v>
+        <v>0.5151952710020655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4867494020236818</v>
+        <v>0.4860420478826032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5424374508236586</v>
+        <v>0.5414345423614939</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>430136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>401124</v>
+        <v>399488</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>459667</v>
+        <v>459407</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5976709842922782</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5573591879180064</v>
+        <v>0.5550864174871722</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6387036161497885</v>
+        <v>0.6383429856912632</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>339</v>
@@ -8729,19 +8729,19 @@
         <v>293068</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>268478</v>
+        <v>268043</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>318438</v>
+        <v>319068</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.379594354564037</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3477435437687889</v>
+        <v>0.3471807896765024</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4124538791475343</v>
+        <v>0.4132694515768079</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>668</v>
@@ -8750,19 +8750,19 @@
         <v>723205</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>682566</v>
+        <v>684062</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>765639</v>
+        <v>766694</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4848047289979345</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4575625491763414</v>
+        <v>0.4585654576385059</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.513250597976318</v>
+        <v>0.5139579521173967</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>209413</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>186651</v>
+        <v>185712</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233849</v>
+        <v>236013</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2623990678926146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2338774069080566</v>
+        <v>0.2327007514582116</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2930173579607411</v>
+        <v>0.2957295779146342</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>449</v>
@@ -8875,19 +8875,19 @@
         <v>307446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>282584</v>
+        <v>284280</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>333585</v>
+        <v>332681</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3698237426402415</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3399179124093319</v>
+        <v>0.3419572971904806</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4012659240351959</v>
+        <v>0.4001791579017345</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>694</v>
@@ -8896,19 +8896,19 @@
         <v>516859</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>484307</v>
+        <v>480787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>553699</v>
+        <v>551737</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3172077871821047</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2972298431886307</v>
+        <v>0.2950694862359342</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3398173149893895</v>
+        <v>0.3386132808521101</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>588659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>564223</v>
+        <v>562059</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>611421</v>
+        <v>612360</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7376009321073853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7069826420392588</v>
+        <v>0.7042704220853657</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.766122593091943</v>
+        <v>0.7672992485417882</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>613</v>
@@ -8946,19 +8946,19 @@
         <v>523885</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>497746</v>
+        <v>498650</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>548747</v>
+        <v>547051</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6301762573597586</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5987340759648042</v>
+        <v>0.5998208420982655</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6600820875906681</v>
+        <v>0.6580427028095195</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1130</v>
@@ -8967,19 +8967,19 @@
         <v>1112544</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1075704</v>
+        <v>1077666</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1145096</v>
+        <v>1148616</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6827922128178953</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6601826850106104</v>
+        <v>0.6613867191478898</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7027701568113693</v>
+        <v>0.7049305137640659</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1140819</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3229256272451861</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2774</v>
@@ -9092,19 +9092,19 @@
         <v>1724142</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4613763600743805</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4098</v>
@@ -9113,19 +9113,19 @@
         <v>2864962</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3940954002529922</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2391943</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2332014</v>
+        <v>2335965</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2446596</v>
+        <v>2452619</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6770743727548139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6601106971750552</v>
+        <v>0.6612290737306259</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.692544828428809</v>
+        <v>0.6942495826913002</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2593</v>
@@ -9163,19 +9163,19 @@
         <v>2012812</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1960852</v>
+        <v>1959294</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2067456</v>
+        <v>2064842</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5386236399256196</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5247193223872821</v>
+        <v>0.5243025436289048</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5532464404442468</v>
+        <v>0.5525469155061506</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4645</v>
@@ -9184,19 +9184,19 @@
         <v>4404754</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4327603</v>
+        <v>4331482</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4493499</v>
+        <v>4494511</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6059045997470078</v>
+        <v>0.6059045997470077</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5952918538602054</v>
+        <v>0.5958255101935952</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6181120798630629</v>
+        <v>0.6182512345917447</v>
       </c>
     </row>
     <row r="30">
